--- a/lit_survey.xlsx
+++ b/lit_survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indianinstituteofscience-my.sharepoint.com/personal/rushikeshp_iisc_ac_in/Documents/IISC/Sem 2/Intro to NLP/Project/Numeracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="8_{AE8CEB8F-732A-46FC-8A54-F2FC3E0013FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F29BFD7-281D-49CA-95F4-9A2CD921FA20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C36AD40-0EB8-4E58-A3DC-1C9749778C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{5885E884-32FA-4C13-9B27-DC5F90433514}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5885E884-32FA-4C13-9B27-DC5F90433514}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers to read" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="172">
   <si>
     <t>Responsibility</t>
   </si>
@@ -308,12 +308,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">The authors also proposed three tests – </t>
     </r>
     <r>
@@ -530,11 +524,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-      </rPr>
       <t xml:space="preserve">Concluded that surface form of a number has a strong influence on a model's accuracy. Sub-word representations don't work becuase two very similar numbers may be represented very differently. Also, extrapolation remains a problem. Saw that representing, for eg, number 32 as "3 10e1 2" scaled best to addition and subtraction on numbers having a large number of digits. Their experiments used </t>
     </r>
     <r>
@@ -626,6 +615,51 @@
     <t>https://github.com/swarooprm/NUMBERGAME?tab=readme-ov-file</t>
   </si>
   <si>
+    <t>CLASSIFICATION OF INTEGERS BASED ON RESIDUE CLASSES VIA MODERN DEEP LEARNING ALGORITHMS</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2304.01333.pdf</t>
+  </si>
+  <si>
+    <t>Among other things, for LLMs, they check if the model knows the rules regarding how to determine if a number is divisible by a certain prime number. They tried for primes upto 31. They checked for two things, whether the answer is correct and whether the answer is informative. The results were not encouraging for smaller LLMs. But they were better for ChatGPT.</t>
+  </si>
+  <si>
+    <t>The Parallelism Tradeoff: Limitations of Log-Precision Transformers</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2207.00729</t>
+  </si>
+  <si>
+    <t>26-04-23</t>
+  </si>
+  <si>
+    <t>showed that inherently sequential problems can't be solved in a single generation step by transformers.</t>
+  </si>
+  <si>
+    <t>How Language Model Hallucinations Can Snowball</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2305.13534.pdf</t>
+  </si>
+  <si>
+    <t>22-05-23</t>
+  </si>
+  <si>
+    <t>query the primality of $500$ randomly chosen primes between $1,000$ and $20,000$. They find that when a model answered incorrectly, upon being asked for justification through factorization, it provided incorrect factors.</t>
+  </si>
+  <si>
+    <t>How is ChatGPT's behavior changing over time</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2307.09009.pdf</t>
+  </si>
+  <si>
+    <t>31-10-23</t>
+  </si>
+  <si>
+    <t>show that CoT prompting may increase or decrease the accuracy in primality testing depending on the model version.</t>
+  </si>
+  <si>
     <t>Can we test different models from this site to compare numeracy perforamce</t>
   </si>
   <si>
@@ -669,7 +703,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +769,17 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="NimbusRomNo9L"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -775,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -820,12 +865,6 @@
     <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,6 +873,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1221,31 +1281,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738D2CE4-1715-4875-890E-2EF8A77FD2EA}">
   <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="B21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="82" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="1"/>
-    <col min="12" max="12" width="45.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.28515625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="21.95" customHeight="1">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="22.15" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="246.6">
+    <row r="3" spans="1:14" ht="244.9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1326,7 +1386,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="203.1">
+    <row r="5" spans="1:14" ht="201.6">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1355,7 +1415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57.75">
+    <row r="6" spans="1:14" ht="57.6">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="188.25">
+    <row r="7" spans="1:14" ht="187.15">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="174">
+    <row r="8" spans="1:14" ht="172.9">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1430,7 +1490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="203.1">
+    <row r="9" spans="1:14" ht="201.6">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1491,7 +1551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="116.1">
+    <row r="11" spans="1:14" ht="100.9">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +1577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="130.5">
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="129.6">
       <c r="A12" s="13" t="s">
         <v>48</v>
       </c>
@@ -1549,7 +1609,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="130.5">
+    <row r="13" spans="1:14" ht="129.6">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1584,11 +1644,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="72.75">
+    <row r="14" spans="1:14" ht="72">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1616,7 +1676,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="72.75">
+    <row r="15" spans="1:14" ht="72">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1645,7 +1705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="72.599999999999994">
+    <row r="16" spans="1:14" ht="72">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="260.25">
+    <row r="17" spans="1:13" ht="244.9">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="333.6">
+    <row r="18" spans="1:13" ht="331.15">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1726,7 +1786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="318.95">
+    <row r="19" spans="1:13" ht="316.89999999999998">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1807,7 +1867,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="72.75">
+    <row r="22" spans="1:13" ht="57.6">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1833,7 +1893,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="130.5">
+    <row r="24" spans="1:13" ht="129.6">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1879,33 +1939,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="13" customFormat="1" ht="101.45">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:13" ht="100.9">
+      <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="3">
         <v>44287</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="1">
         <v>63</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="29.25">
+    <row r="26" spans="1:13" ht="28.9">
       <c r="B26" s="1" t="s">
         <v>128</v>
       </c>
@@ -1922,7 +1982,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="188.25">
+    <row r="27" spans="1:13" ht="172.9">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1942,7 +2002,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" ht="188.25">
+    <row r="28" spans="1:13" s="13" customFormat="1" ht="172.9">
       <c r="A28" s="13" t="s">
         <v>48</v>
       </c>
@@ -1968,7 +2028,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="245.25">
+    <row r="29" spans="1:13" ht="244.9">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -1994,37 +2054,111 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="29.1">
-      <c r="A40" s="19" t="s">
+    <row r="30" spans="1:13" ht="57.75">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="23">
+        <v>45177</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="40.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="1">
+        <v>21</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="38.25" customHeight="1">
+      <c r="B32" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="1">
+        <v>123</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.5" customHeight="1">
+      <c r="B33" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="1">
+        <v>216</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="28.9">
+      <c r="A40" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15">
-      <c r="A41" s="19" t="s">
+      <c r="B40" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="19" t="s">
+      <c r="B41" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>149</v>
+      <c r="B42" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2067,9 +2201,13 @@
     <hyperlink ref="J15" r:id="rId36" xr:uid="{86F42E4E-3CB9-47B7-9EFE-9C706FE90084}"/>
     <hyperlink ref="J28" r:id="rId37" xr:uid="{37E701BD-EB32-40CB-B53B-51174B264E18}"/>
     <hyperlink ref="C42" r:id="rId38" xr:uid="{46C19551-8294-4934-9DF7-CD241872C54A}"/>
+    <hyperlink ref="C30" r:id="rId39" xr:uid="{0CC70B30-8DDE-4FBF-A0EF-E44A869B1304}"/>
+    <hyperlink ref="C31" r:id="rId40" xr:uid="{B2BF217F-4BC5-4BE8-A451-27EAF412A236}"/>
+    <hyperlink ref="C32" r:id="rId41" xr:uid="{835B842F-E4C5-4782-8A5D-C174651EDAF6}"/>
+    <hyperlink ref="C33" r:id="rId42" xr:uid="{EBF892B8-7CF4-4F3A-A3B9-535B0C1C9D2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId39"/>
+  <drawing r:id="rId43"/>
 </worksheet>
 </file>
 
@@ -2084,35 +2222,35 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
